--- a/Bike-Sales-Analysis.xlsx
+++ b/Bike-Sales-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25CB091-6E62-4327-AE31-B700F2190578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB719B41-12CA-494A-9D6C-77C4E716D6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F2DD74EC-A248-4D18-B640-78FBF8682469}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{F2DD74EC-A248-4D18-B640-78FBF8682469}"/>
   </bookViews>
   <sheets>
     <sheet name="Datas" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -464,7 +464,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -792,7 +791,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[module 1 project.xlsx]Data representation!PivotTable2</c:name>
+    <c:name>[Bike-Sales-Analysis.xlsx]Data representation!PivotTable2</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -929,49 +928,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1055,49 +1012,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1562,7 +1477,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[module 1 project.xlsx]Data representation!PivotTable7</c:name>
+    <c:name>[Bike-Sales-Analysis.xlsx]Data representation!PivotTable7</c:name>
     <c:fmtId val="14"/>
   </c:pivotSource>
   <c:chart>
@@ -1804,8 +1719,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2412,7 +2326,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[module 1 project.xlsx]Data representation!PivotTable4</c:name>
+    <c:name>[Bike-Sales-Analysis.xlsx]Data representation!PivotTable4</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3089,7 +3003,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[module 1 project.xlsx]Data representation!PivotTable5</c:name>
+    <c:name>[Bike-Sales-Analysis.xlsx]Data representation!PivotTable5</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -3868,7 +3782,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[module 1 project.xlsx]Data representation!PivotTable6</c:name>
+    <c:name>[Bike-Sales-Analysis.xlsx]Data representation!PivotTable6</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -3998,49 +3912,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4125,49 +3997,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -4748,7 +4578,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[module 1 project.xlsx]Data representation!PivotTable7</c:name>
+    <c:name>[Bike-Sales-Analysis.xlsx]Data representation!PivotTable7</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -4870,8 +4700,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5423,7 +5252,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[module 1 project.xlsx]Data representation!PivotTable2</c:name>
+    <c:name>[Bike-Sales-Analysis.xlsx]Data representation!PivotTable2</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -5570,29 +5399,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:shade val="76000"/>
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:shade val="76000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5655,29 +5462,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:tint val="77000"/>
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:tint val="77000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6096,7 +5881,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[module 1 project.xlsx]Data representation!PivotTable4</c:name>
+    <c:name>[Bike-Sales-Analysis.xlsx]Data representation!PivotTable4</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -6833,7 +6618,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[module 1 project.xlsx]Data representation!PivotTable5</c:name>
+    <c:name>[Bike-Sales-Analysis.xlsx]Data representation!PivotTable5</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -7576,7 +7361,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[module 1 project.xlsx]Data representation!PivotTable6</c:name>
+    <c:name>[Bike-Sales-Analysis.xlsx]Data representation!PivotTable6</c:name>
     <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
@@ -7735,27 +7520,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7819,27 +7584,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="4"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7891,7 +7636,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10116714134137487"/>
-          <c:y val="0.15782407407407409"/>
+          <c:y val="0.16245370370370371"/>
           <c:w val="0.73829535935667612"/>
           <c:h val="0.72088764946048411"/>
         </c:manualLayout>
@@ -14054,16 +13799,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>176211</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14093,15 +13838,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14131,15 +13876,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14169,15 +13914,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14206,16 +13951,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14255,8 +14000,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Gender">
@@ -14279,7 +14024,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14333,8 +14078,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Income">
@@ -14357,7 +14102,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14411,8 +14156,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="9" name="Commute Distance">
@@ -14435,7 +14180,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14489,8 +14234,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Purchased Bike">
@@ -14513,7 +14258,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14567,8 +14312,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="15" name="Age bracket 1">
@@ -14591,7 +14336,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14645,8 +14390,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="17" name="Marital Status 1">
@@ -14669,7 +14414,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -14723,8 +14468,8 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="20" name="Region 1">
@@ -14747,7 +14492,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -79202,7 +78947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BB32CC-A638-41EB-801B-D2D58EE0CA35}">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
@@ -80167,12 +79912,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -80225,13 +79970,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <v>2</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
@@ -80256,10 +80001,10 @@
       <c r="A24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24">
         <v>166</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24">
         <v>166</v>
       </c>
     </row>
@@ -80267,19 +80012,19 @@
       <c r="A25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="21">
+      <c r="B25">
         <v>166</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25">
         <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
@@ -80307,13 +80052,13 @@
       <c r="A43" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="21">
+      <c r="B43">
         <v>130</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43">
         <v>59</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43">
         <v>189</v>
       </c>
     </row>
@@ -80321,22 +80066,22 @@
       <c r="A44" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="21">
+      <c r="B44">
         <v>130</v>
       </c>
-      <c r="C44" s="21">
+      <c r="C44">
         <v>59</v>
       </c>
-      <c r="D44" s="21">
+      <c r="D44">
         <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
@@ -80403,11 +80148,11 @@
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D85" s="26"/>
-      <c r="E85" s="26" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F85" s="26"/>
+      <c r="F85" s="25"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="17" t="s">
@@ -80421,7 +80166,7 @@
       <c r="B89" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="21">
+      <c r="C89">
         <v>192</v>
       </c>
     </row>
@@ -80429,7 +80174,7 @@
       <c r="B90" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="21">
+      <c r="C90">
         <v>192</v>
       </c>
     </row>
@@ -80443,8 +80188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4084986-AF3D-4260-B901-18915CA7E953}">
   <dimension ref="F2:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
